--- a/Document/TableLayout.xlsx
+++ b/Document/TableLayout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="98">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -364,6 +364,14 @@
   </si>
   <si>
     <t>扩展字段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展字段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展字段2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1485,7 +1493,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1966,7 +1974,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2303,7 +2311,7 @@
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
       <c r="I64" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">

--- a/Document/TableLayout.xlsx
+++ b/Document/TableLayout.xlsx
@@ -948,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
